--- a/Codelist Excel Files and Conversion Templates to XML/boreholeMethod.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholeMethod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E9EE02-434D-9E40-B2A6-CB873607B26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD32AF-99B8-784B-B0B1-283E3186F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9060" yWindow="4640" windowWidth="38400" windowHeight="19860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,9 +887,6 @@
     <t>Borehole is constructed using an auger probe wisted into the ground to collect a soil sample</t>
   </si>
   <si>
-    <t>gml:name</t>
-  </si>
-  <si>
     <t>boreholeMethod</t>
   </si>
   <si>
@@ -900,6 +897,9 @@
   </si>
   <si>
     <t>//diggs:BoreholeConstructionMethod/gml:name</t>
+  </si>
+  <si>
+    <t>BoreholeConstructionMethod_name</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1649,16 +1649,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
         <v>240</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>242</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2210,7 +2210,7 @@
         <v>245</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>235</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>248</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>234</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2258,7 +2258,7 @@
         <v>237</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>250</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>239</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>254</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>258</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>263</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2354,7 +2354,7 @@
         <v>264</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
